--- a/notes/climate_chamber/schedule/warm_fall/WarmF2oct.xlsx
+++ b/notes/climate_chamber/schedule/warm_fall/WarmF2oct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/notes/climate_chamber/schedule/warm_fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8158D4C3-1748-E14C-9D22-44C254E65CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC747CA-6AA5-1C4B-A0DC-9A8AECA4780D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37800" yWindow="-1980" windowWidth="27240" windowHeight="16260" xr2:uid="{4D476646-5361-4E43-ACF1-036E5CDB58BE}"/>
+    <workbookView xWindow="1160" yWindow="740" windowWidth="27240" windowHeight="16260" xr2:uid="{4D476646-5361-4E43-ACF1-036E5CDB58BE}"/>
   </bookViews>
   <sheets>
     <sheet name="WarmF4sept" sheetId="1" r:id="rId1"/>
@@ -557,15 +557,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -944,7 +942,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1265,7 +1263,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C8" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1309,7 +1307,7 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="C9" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1353,7 +1351,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1397,7 +1395,7 @@
         <v>0.375</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1441,7 +1439,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1485,7 +1483,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1529,7 +1527,7 @@
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1573,7 +1571,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1617,7 +1615,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1661,7 +1659,7 @@
         <v>0.625</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1705,7 +1703,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1749,7 +1747,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1793,7 +1791,7 @@
         <v>0.75</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1837,7 +1835,7 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="C21" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1873,47 +1871,47 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="7">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>13</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>70</v>
       </c>
     </row>
